--- a/Result/VAR/Service/BRA.xlsx
+++ b/Result/VAR/Service/BRA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,353 +460,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7087499646481419</v>
+        <v>42.55384712233425</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3634676332059641</v>
+        <v>43.78365725362809</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.1355689048087</v>
+        <v>44.41638809225592</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.700071535156638</v>
+        <v>45.34542409115377</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>0.942426362732192</v>
+        <v>45.33563432462013</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>1.472400539750417</v>
+        <v>43.91872048444355</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>2.93219448708998</v>
+        <v>43.31497960742549</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05308522195907983</v>
+        <v>43.90584469845007</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>8.54230571581126</v>
+        <v>46.9042909337068</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>-12.07618885439087</v>
+        <v>49.93763364208019</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>7.754633232469239</v>
+        <v>58.86859258404412</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.827315747631012</v>
+        <v>60.17537149689453</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>-21.42396296146307</v>
+        <v>65.66365872099851</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>17.67061155544135</v>
+        <v>70.16911639147581</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9703895188836142</v>
+        <v>57.25802882685607</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.910630395708552</v>
+        <v>58.0031298970992</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>0.226047206201585</v>
+        <v>60.15090326350687</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.427816643853618</v>
+        <v>60.4048114713287</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.036858973852752</v>
+        <v>60.99550280958242</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>1.413626387190014</v>
+        <v>60.28754235990747</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1726222259622716</v>
+        <v>58.30732000718417</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.624770563349955</v>
+        <v>58.44306496883486</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.447039690459917</v>
+        <v>58.26887872988658</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>2.592777530263767</v>
+        <v>57.43807271479668</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.09318490988591321</v>
+        <v>55.99438960970242</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4741265920391413</v>
+        <v>56.94187965498509</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.509483435749743</v>
+        <v>57.88472188355502</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>3.261571878457161</v>
+        <v>58.45805016538195</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.872334678672239</v>
+        <v>57.73080582122609</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>1.487384576499345</v>
+        <v>59.66976718818956</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>1.21018585235344</v>
+        <v>58.14571658755179</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2202777170652652</v>
+        <v>58.30922071282652</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6270605515757097</v>
+        <v>59.24002587400417</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5153228647797476</v>
+        <v>59.93873815020661</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1610645115104035</v>
+        <v>61.1785909343644</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>62.00328041240942</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +864,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.130797055498344</v>
+        <v>62.70280038371784</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -864,7 +874,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1137193151978768</v>
+        <v>62.63005629749631</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -874,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01339558262593045</v>
+        <v>62.66815399184938</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -884,7 +894,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2150708502681162</v>
+        <v>62.74589723294227</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -894,7 +904,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1397802887287141</v>
+        <v>62.84511013919229</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -910,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,423 +952,413 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>40.39216130279042</v>
+        <v>42.5821526097135</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>41.75996842349758</v>
+        <v>43.81213176070953</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>42.4190255795566</v>
+        <v>44.44384922156458</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>43.44155036882159</v>
+        <v>45.37175885521574</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>43.32850625327787</v>
+        <v>45.36024403740812</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>41.51539060257752</v>
+        <v>43.94059262082325</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>40.64470131460936</v>
+        <v>43.33708486191995</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>41.24641256639161</v>
+        <v>43.9273094544459</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>44.78031830526385</v>
+        <v>46.92545453777105</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>48.36730926609516</v>
+        <v>49.95787037913205</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>60.49660594273774</v>
+        <v>58.85285158822337</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>60.54971376498944</v>
+        <v>60.19607002537804</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>68.35745481971038</v>
+        <v>65.65008469262791</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>73.33788012680031</v>
+        <v>70.16520884744349</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>56.89434247242718</v>
+        <v>57.2618169203752</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>58.12141637349539</v>
+        <v>57.9907252205822</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>60.31887979344722</v>
+        <v>60.14358121546393</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>60.6057128176905</v>
+        <v>60.39024291901684</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>61.11859304813537</v>
+        <v>60.97846616676454</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>60.20365663472661</v>
+        <v>60.26347681024335</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>58.25186124746511</v>
+        <v>58.26214194243693</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>57.71369224739362</v>
+        <v>58.41107282395584</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>57.3481454732844</v>
+        <v>58.23474116851791</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>56.35782813582522</v>
+        <v>57.39674856467572</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>54.92047110790613</v>
+        <v>55.93754633356588</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>56.07589161025081</v>
+        <v>56.87927192000616</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>57.13812720270957</v>
+        <v>57.81851360702088</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>57.72623620312919</v>
+        <v>58.38908937185207</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>56.80486176779907</v>
+        <v>57.656768311798</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>59.14505921092611</v>
+        <v>59.59142584886293</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>57.61292197538091</v>
+        <v>58.05240240194312</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>57.56816931633505</v>
+        <v>58.21756772274924</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>58.73360250964264</v>
+        <v>59.14323338498231</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>59.67875798588496</v>
+        <v>59.83544747593455</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>61.25097401370299</v>
+        <v>61.0704406387778</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>62.30786717674127</v>
+        <v>61.89104513486561</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>63.20369582826915</v>
+        <v>62.58824208419121</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>63.33867286074985</v>
+        <v>62.71785594199115</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>62.65335034702257</v>
+        <v>62.08910310231897</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>63.06784925390022</v>
+        <v>62.4805715132816</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>62.79521127395249</v>
+        <v>62.36777230784316</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>59.38128912386762</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +1406,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3878929936862747</v>
+        <v>60.5000686779338</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>1.191032334559128</v>
+        <v>60.94167972307329</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1426,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.478253301771884</v>
+        <v>61.18581539905068</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>1.148184017868417</v>
+        <v>61.36690489210849</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8601018251277349</v>
+        <v>61.52336745921818</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
